--- a/config/default/forms/app/child_referral_follow_up.xlsx
+++ b/config/default/forms/app/child_referral_follow_up.xlsx
@@ -8118,7 +8118,7 @@
       </c>
       <c r="C2" s="53" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-03_16-38</v>
+        <v>2020-12-04_11-56</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>158</v>

--- a/config/default/forms/app/child_referral_follow_up.xlsx
+++ b/config/default/forms/app/child_referral_follow_up.xlsx
@@ -9044,7 +9044,7 @@
       </c>
       <c r="C2" s="64" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-26_15-32</v>
+        <v>2021-01-28_15-38</v>
       </c>
       <c r="D2" s="65" t="s">
         <v>169</v>

--- a/config/default/forms/app/child_referral_follow_up.xlsx
+++ b/config/default/forms/app/child_referral_follow_up.xlsx
@@ -9044,7 +9044,7 @@
       </c>
       <c r="C2" s="64" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-28_15-38</v>
+        <v>2021-01-29_15-47</v>
       </c>
       <c r="D2" s="65" t="s">
         <v>169</v>

--- a/config/default/forms/app/child_referral_follow_up.xlsx
+++ b/config/default/forms/app/child_referral_follow_up.xlsx
@@ -11674,7 +11674,7 @@
       </c>
       <c r="C2" s="84" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-02_14-53</v>
+        <v>2021-02-04_14-53</v>
       </c>
       <c r="D2" s="85" t="s">
         <v>248</v>

--- a/config/default/forms/app/child_referral_follow_up.xlsx
+++ b/config/default/forms/app/child_referral_follow_up.xlsx
@@ -11674,7 +11674,7 @@
       </c>
       <c r="C2" s="84" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-04_14-53</v>
+        <v>2021-02-04_15-05</v>
       </c>
       <c r="D2" s="85" t="s">
         <v>248</v>

--- a/config/default/forms/app/child_referral_follow_up.xlsx
+++ b/config/default/forms/app/child_referral_follow_up.xlsx
@@ -11674,7 +11674,7 @@
       </c>
       <c r="C2" s="84" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-04_15-05</v>
+        <v>2021-02-05_13-54</v>
       </c>
       <c r="D2" s="85" t="s">
         <v>248</v>
